--- a/biology/Botanique/Eduard_Fischer/Eduard_Fischer.xlsx
+++ b/biology/Botanique/Eduard_Fischer/Eduard_Fischer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludwig Eduard Fischer est un botaniste et un mycologue suisse, né le 16 juin 1861 à Berne et mort le 18 novembre 1939.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du botaniste Ludwig Fischer et de Mathilde née Berri. Il étudie à Berne et à Strasbourg et obtient son doctorat en 1883. Il suit notamment les cours de Heinrich Anton de Bary qui l’oriente vers l’étude des champignons. Il étudie auprès de Simon Schwendener, d'August Wilhelm Eichler et de Paul Friedrich August Ascherson à Berlin en 1884-1885.
 Il travaille à l’institut de botanique à l’université de Berlin à partir de 1885, est professeur-assistant de 1893 à 1897 puis professeur à partir de 1897. À cette date, il succède à son père à la direction du jardin botanique de Berne.
